--- a/ixigo/src/test/resources/ExcelData/checkboxes.xlsx
+++ b/ixigo/src/test/resources/ExcelData/checkboxes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{20BAB133-6A58-48FA-9142-1EBA7838A819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1CAF7FB2-63B4-4CAC-8DFF-1FCE70412765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{86B63CBE-59F0-4FBE-85B1-98DC84051EFD}"/>
   </bookViews>
@@ -16,17 +16,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -37,7 +26,7 @@
     <t>Free Cancellation</t>
   </si>
   <si>
-    <t>Very Good: 7+</t>
+    <t>Couple Friendly</t>
   </si>
 </sst>
 </file>
@@ -412,7 +401,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
